--- a/TEST CASE _Gallery App_.xlsx
+++ b/TEST CASE _Gallery App_.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="305">
-  <si>
-    <t>The functionality of the home page(user not logged on)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="320">
   <si>
     <t>Test title:</t>
   </si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Actual result:</t>
+  </si>
+  <si>
+    <t>The functionality of the home page (user not logged on)</t>
   </si>
   <si>
     <t>Open app</t>
@@ -59,7 +59,7 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Home page buttons(links)</t>
+    <t xml:space="preserve">Home page </t>
   </si>
   <si>
     <t>TC-02</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Home page GALLERY APP should have buttons(links): “All Galleries”, “Login”, “Register” </t>
   </si>
   <si>
-    <t>All galleris buton</t>
+    <t xml:space="preserve">All galleries </t>
   </si>
   <si>
     <t>TC-03</t>
@@ -107,7 +107,7 @@
     </r>
   </si>
   <si>
-    <t>Log in button</t>
+    <t xml:space="preserve">Log in </t>
   </si>
   <si>
     <t>TC-04</t>
@@ -119,7 +119,7 @@
     <t>The website should open login page</t>
   </si>
   <si>
-    <t>Register button</t>
+    <t xml:space="preserve">Register </t>
   </si>
   <si>
     <t>TC-05</t>
@@ -131,10 +131,10 @@
     <t>The website should open the Register page</t>
   </si>
   <si>
-    <t>The functionality of the registration page(registration)</t>
-  </si>
-  <si>
-    <t>Load registration page</t>
+    <t>The functionality of the registration page (registration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration page UI </t>
   </si>
   <si>
     <t>TC-06</t>
@@ -185,30 +185,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter first name, visible &amp;entered
-2. Enter last name, visible &amp;entered
-3. Enter valid email, visible &amp;entered    
-4. Enter password, visible &amp; entered
-5. Confirm password,entered&amp;accepted
-6. Accepted t&amp;c
-7. Req. and logged user, a home page(logged on)
+    <t xml:space="preserve">
+1. Registered and logged in user
+2.Website should load Home screen (user logged in)
 </t>
   </si>
   <si>
-    <t>Uncheck terms &amp; condition box</t>
+    <t>Try to uncheck terms &amp; condition box</t>
   </si>
   <si>
     <t>TC-08</t>
   </si>
   <si>
-    <t>1. Uncheck box "Accepted terms and conditions"
-2.Click the button "Submit"</t>
+    <t xml:space="preserve">1. Enter the  first name
+2. Enter the last name
+3. Enter the email
+4. Enter the password: at least 8 chars, at least 1 digit
+5. Enter the confirmed password
+6. Click the button "Submit"
+</t>
   </si>
   <si>
     <t>Warning message: "The terms and conditions must be accepted"</t>
   </si>
   <si>
-    <t>Register without any credentials</t>
+    <t>Try to register without any credentials</t>
   </si>
   <si>
     <t>TC-09</t>
@@ -221,64 +222,152 @@
     <t>Warning message: "please fill out that field"</t>
   </si>
   <si>
-    <t>Register without a first name</t>
+    <t>Try to register  without a first name</t>
   </si>
   <si>
     <t>TC-10</t>
   </si>
   <si>
-    <t>1. First name field empty</t>
-  </si>
-  <si>
-    <t>Register without last name</t>
+    <t xml:space="preserve">1. The first name field is empty
+2. Enter the last name
+3. Enter the email
+4. Enter the password: at least 8 chars, at least 1 digit
+5. Enter the confirmed password
+5. Check "Accepted terms and conditions"
+6. Click the button "Submit"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 
+2. simic
+3.sima@gmail.com
+4.abcde12345
+</t>
+  </si>
+  <si>
+    <t>Try to register  without last name</t>
   </si>
   <si>
     <t>TC-11</t>
   </si>
   <si>
-    <t>1. Last name field empty</t>
-  </si>
-  <si>
-    <t>Register without email</t>
+    <t xml:space="preserve">1. Enter the  first name
+2. The last name input field is empty
+3. Enter the email
+4. Enter the password: at least 8 chars, at least 1 digit
+5. Enter the confirmed password
+5. Check "Accepted terms and conditions"
+6. Click the button "Submit"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. sima
+2. 
+3.sima@gmail.com
+4.abcde12345
+</t>
+  </si>
+  <si>
+    <t>Try to register  without email</t>
   </si>
   <si>
     <t>TC-12</t>
   </si>
   <si>
-    <t>1.Email field empty</t>
-  </si>
-  <si>
-    <t>Register without password</t>
+    <t xml:space="preserve">1. Enter the  first name
+2. Enter the last name
+3. The email input field is empty
+4. Enter the password: at least 8 chars, at least 1 digit
+5. Enter the confirmed password
+5. Check "Accepted terms and conditions"
+6. Click the button "Submit"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. sima
+2. simic
+3.
+4.abcde12345
+</t>
+  </si>
+  <si>
+    <t>Try to register  without password</t>
   </si>
   <si>
     <t>TC-13</t>
   </si>
   <si>
-    <t>1. Password field empty</t>
-  </si>
-  <si>
-    <t>Register without confirmed password</t>
+    <t xml:space="preserve">1. Enter the  first name
+2. Enter the last name
+3. Enter the email
+4. The password input field is empty
+5. Enter the confirmed password
+5. Check "Accepted terms and conditions"
+6. Click the button "Submit"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. sima
+2. simic
+3.sima@gmail.com
+4.
+</t>
+  </si>
+  <si>
+    <t>Try to register  without confirmed password</t>
   </si>
   <si>
     <t>TC-14</t>
   </si>
   <si>
-    <t>1.Confirmed password field empty</t>
+    <t xml:space="preserve">1. Enter the  first name
+2. Enter the last name
+3. Enter the email
+4. Enter the password: at least 8 chars, at least 1 digit
+5. The confirmed password input field is empty
+5. Check "Accepted terms and conditions"
+6. Click the button "Submit"
+</t>
   </si>
   <si>
     <t>Expexted</t>
   </si>
   <si>
-    <t>Register with invalid email</t>
+    <t>Try to register  with invalid email</t>
   </si>
   <si>
     <t>TC-15</t>
   </si>
   <si>
-    <t>1.Enter invalid email</t>
-  </si>
-  <si>
-    <t>1.simagmail.com</t>
+    <t xml:space="preserve">1. Enter the  first name
+2. Enter the last name
+3. Enter an invalid email
+4. Enter the password: at least 8 chars, at least 1 digit
+5. Enter the confirmed password
+5. Check "Accepted terms and conditions"
+6. Click the button "Submit"
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. sima
+2. simic
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>3.simagmail.com</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+4.abcde12345
+</t>
+    </r>
   </si>
   <si>
     <t>Warning message: "invalid email address"</t>
@@ -287,54 +376,82 @@
     <t>Warning message: "please include '@' in the email address"</t>
   </si>
   <si>
-    <t>Register with an invalid password min or less characters, with a digit or not</t>
+    <t>Try to register  with an invalid password (less characters)</t>
   </si>
   <si>
     <t>TC-16</t>
   </si>
   <si>
-    <t>1. Enter an invalid password(less then 8 characters)
-2.Enter an invalid password(without digit)</t>
-  </si>
-  <si>
-    <t>1. qwer1
-2. abcdefghi</t>
-  </si>
-  <si>
-    <t>1. Warning message: "The password must be at least 8 characters.
-2. Warning message :"Paswword format is invalid"</t>
-  </si>
-  <si>
-    <t>Register with an invalid confirmed password</t>
+    <t xml:space="preserve">1. Enter an invalid password(less then 8 characters)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. sima
+2. simic
+3.sima@gmail.com
+4.abcde12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Warning message: "The password must be at least 8 characters"
+</t>
+  </si>
+  <si>
+    <t>Try to register  with an invalid password (without a digit)</t>
+  </si>
+  <si>
+    <t>TC-16A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter an invalid password (without  a digit)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. sima
+2. simic
+3.sima@gmail.com
+4.abcdefgh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Warning message: "The password format is invalid"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to register  with an invalid confirmed password </t>
   </si>
   <si>
     <t>TC-17</t>
   </si>
   <si>
-    <t>1. Enter an invalid confirmed password</t>
-  </si>
-  <si>
-    <t>abcde12367</t>
+    <t>1. sima
+2. simic
+3.sima@gmail.com
+4.abcde12345
+(12345abcde)</t>
   </si>
   <si>
     <t>Warning message: "The password confirmation does not match"</t>
   </si>
   <si>
-    <t xml:space="preserve">The functionality of the home page(logged on)                                        
+    <t xml:space="preserve">The functionality of the home page (logged in)                                        
                                                 </t>
   </si>
   <si>
+    <t>Home page UI loads properly</t>
+  </si>
+  <si>
     <t>TC-18</t>
   </si>
   <si>
     <t>TC-01
-User logged on</t>
+User logged in</t>
   </si>
   <si>
     <t>Home page GALLERY APP should have buttons(links):“All Galleries”, “My Galleries”, “Create New Gallery”, and “Logout”</t>
   </si>
   <si>
-    <t>All galleris button</t>
+    <t>All galleris UI loads properly</t>
   </si>
   <si>
     <t>TC-19</t>
@@ -364,7 +481,7 @@
     </r>
   </si>
   <si>
-    <t>My galleries button</t>
+    <t>My galleries UI loads properly</t>
   </si>
   <si>
     <t>TC-20</t>
@@ -376,7 +493,7 @@
     <t>The website should open the My galleries page</t>
   </si>
   <si>
-    <t>Create My gallery</t>
+    <t>Create My gallery UI loads properly</t>
   </si>
   <si>
     <t>TC-21</t>
@@ -388,13 +505,13 @@
     <t>The website should open the Create gallery page</t>
   </si>
   <si>
-    <t>Logout button</t>
+    <t>Login UI loads properly</t>
   </si>
   <si>
     <t>TC-22</t>
   </si>
   <si>
-    <t>1. Click on the Logout button</t>
+    <t>1. Click on the Login button</t>
   </si>
   <si>
     <t>The website should open Log in page</t>
@@ -409,8 +526,8 @@
     <t>TC-23</t>
   </si>
   <si>
-    <t>1. Enter a valid email
-2. Enter a valid password</t>
+    <t>1. Enter a valid email ( already in database)
+2. Enter a valid password ( already in database)</t>
   </si>
   <si>
     <t>1.sima@gmail.com 
@@ -422,7 +539,7 @@
 3. Logged user Home page</t>
   </si>
   <si>
-    <t>Log in without any credentials</t>
+    <t>Try to log in without any credentials</t>
   </si>
   <si>
     <t>TC-24</t>
@@ -434,27 +551,31 @@
     <t>1. Warning message: "Please fill out that field"</t>
   </si>
   <si>
-    <t>Log in without the Email</t>
+    <t>Try to log in without the Email</t>
   </si>
   <si>
     <t>TC-25</t>
   </si>
   <si>
     <t>1. Email field is empty
-2. Enter a valid password
+2. Enter a valid password  ( already in database)
 3. Click the button Submit</t>
   </si>
   <si>
     <t>1. abcde12345</t>
   </si>
   <si>
-    <t>Log in without the Password</t>
+    <t>Try to log in without the Password</t>
   </si>
   <si>
     <t>TC-26</t>
   </si>
   <si>
-    <t>1. Enter the valid Email
+    <t xml:space="preserve">TC-04
+ </t>
+  </si>
+  <si>
+    <t>1. Enter a valid Email  ( already in database)
 2. Password field is empty
 3. Click the button Submit</t>
   </si>
@@ -462,37 +583,43 @@
     <t>1.sima@gmail.com</t>
   </si>
   <si>
-    <t>Log in with invalid email</t>
+    <t>Try to log in with invalid email</t>
   </si>
   <si>
     <t>TC-27</t>
   </si>
   <si>
-    <t>1. Enter an invalid email</t>
-  </si>
-  <si>
-    <t>sima32@gmail.com</t>
+    <t>1. Enter an invalid email (not in database)
+2. Enter a valid password  ( already in database)
+3. Click the button Submit</t>
+  </si>
+  <si>
+    <t>1. sima32@gmail.com
+2. abcde12345</t>
   </si>
   <si>
     <t>Warning message: "Bad credentials"</t>
   </si>
   <si>
-    <t>Log in with invalid password</t>
+    <t>Try to log in with invalid password</t>
   </si>
   <si>
     <t>TC-28</t>
   </si>
   <si>
-    <t>1.Enter an invalid password</t>
-  </si>
-  <si>
-    <t>1.abc43278</t>
-  </si>
-  <si>
-    <t>The functionality of the home page "Galleries"(user not logged on)</t>
-  </si>
-  <si>
-    <t>Galleries</t>
+    <t>1. Enter a valid Email (already in database)
+2. Enter an invalid password (not in database)
+3. Click the button Submit</t>
+  </si>
+  <si>
+    <t>1.sima@gmail.com 
+2.abcdedfgdf2</t>
+  </si>
+  <si>
+    <t>The functionality of the home page "Galleries" (user not logged on)</t>
+  </si>
+  <si>
+    <t>Validate that all images in a gallery load upon clicking on the gallery name</t>
   </si>
   <si>
     <t>TC-29</t>
@@ -507,7 +634,7 @@
     <t>Load page: Galleries id</t>
   </si>
   <si>
-    <t xml:space="preserve">Author </t>
+    <t>Validate that all galleries from the author are load upon clicking on the author name</t>
   </si>
   <si>
     <t>TC-30</t>
@@ -559,6 +686,9 @@
   </si>
   <si>
     <t>The search box is present&amp;visible, and accepts users input</t>
+  </si>
+  <si>
+    <t>Home page-filter input (galleries)</t>
   </si>
   <si>
     <t>TC-34</t>
@@ -576,7 +706,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Home page-filter input(authors) </t>
+    <t xml:space="preserve">Home page-filter input (authors) </t>
   </si>
   <si>
     <t>TC-35</t>
@@ -590,7 +720,7 @@
     <t>1. test</t>
   </si>
   <si>
-    <t>Home page-filter(descriptions)</t>
+    <t>Home page-filter (descriptions)</t>
   </si>
   <si>
     <t>TC-36</t>
@@ -700,123 +830,247 @@
     <t>1. Load page All galleries</t>
   </si>
   <si>
-    <t>Create gallery-The title box empty</t>
-  </si>
-  <si>
-    <t>1.The title box is empty</t>
-  </si>
-  <si>
-    <t>Create gallery-Description box empty</t>
+    <t xml:space="preserve"> Try to create gallery - The title box empty</t>
+  </si>
+  <si>
+    <t>1.  The title box is empty
+2. In the description box enter the description (1000 char max)
+3. In the box for img. enter image URL (jpg,png,jpeg extension only)
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The input field is empty
+2. The night is young and so are we!!!
+3. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+</t>
+  </si>
+  <si>
+    <t>Try to create gallery - Description box empty</t>
   </si>
   <si>
     <t>TC-42</t>
   </si>
   <si>
-    <t>1. The description box is empty</t>
-  </si>
-  <si>
-    <t>Create gallery-The box for image URLs empty</t>
+    <t>1. In the title box enter the title (min 2 characters-max 255)
+2. The description box is empty
+3. In the box for img. enter image URL (jpg,png,jpeg extension only)
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Night
+2. The input field is empty
+3. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+</t>
+  </si>
+  <si>
+    <t>Try to create galleryy - The box for image URLs empty</t>
   </si>
   <si>
     <t>TC-43</t>
   </si>
   <si>
-    <t>TC40</t>
-  </si>
-  <si>
-    <t>1. Box for image URLs is empty</t>
-  </si>
-  <si>
-    <t>Create gallery-invalid title(min 2 characters)</t>
+    <t>1. In the title box enter the title (min 2 characters-max 255)
+2. In the description box enter the description (1000 char max)
+3. The box for img. is empty
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <t>1. The Night
+2. The night is young and so are we!!!
+3. The input field is empty
+4. The input field is empty</t>
+  </si>
+  <si>
+    <t>Try to create gallery - invalid title(min 2 characters)</t>
   </si>
   <si>
     <t>TC-44</t>
   </si>
   <si>
-    <t>1. Enter an invalid title(less than 2 characters)</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>1. In the title box enter an invalid title (less than 2 characters)
+2. In the description box enter the description (1000 char max)
+3. In the box for img. enter image URL (jpg,png,jpeg extension only)
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. a
+2. The night is young and so are we!!!
+3. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+</t>
   </si>
   <si>
     <t>1. Warning message; "The title must be at least 2 characters "</t>
   </si>
   <si>
-    <t>Create gallery-invalid title(max 255 characters)</t>
+    <t>Try to create gallery - invalid title(max 255 characters)</t>
   </si>
   <si>
     <t>TC-45</t>
   </si>
   <si>
-    <t>1. Enter an invalid title(more than 255 characters)</t>
-  </si>
-  <si>
-    <t>aU0vSdPAN9QSduEI2Ce5NJPLH49E7lsAWEWODHvzxBHZ9psC6Qs37UBvz55tunoApkmMMPtWUx6wBF23ox68PyhWIF0ngNsTAyYfXWXq6aIymyoz9IMqCm6sodHe2plzJfNsaYi5XpxdOhI4ANWPjEXTdfjM8ZTFvv9oJVtdE0kFfh3lDuncgoxWxWmVegdufonTvTiIrq4d8l95plrM56yxMdj8YwiPI6GNSfUePfAMrad9HFbxegPBr5pEDhtL</t>
+    <t>1. In the title box enter an invalid title (more than 255 characters)
+2. In the description box enter the description (1000 char max)
+3. In the box for img. enter image URL (jpg,png,jpeg extension only)
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. aU0vSdPAN9QSduEI2Ce5NJPLH49E7lsAWEWODHvzxBHZ9psC6Qs37UBvz55tunoApkmMMPtWUx6wBF23ox68PyhWIF0ngNsTAyYfXWXq6aIymyoz9IMqCm6sodHe2plzJfNsaYi5XpxdOhI4ANWPjEXTdfjM8ZTFvv9oJVtdE0kFfh3lDuncgoxWxWmVegdufonTvTiIrq4d8l95plrM56yxMdj8YwiPI6GNSfUePfAMrad9HFbxegPBr5pEDhtL
+2. The night is young and so are we!!!
+3. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+</t>
   </si>
   <si>
     <t>1. Warning message; "The title may not be greater than 255 characters "</t>
   </si>
   <si>
-    <t>Create gallery-invalid description (max 1000 characters)</t>
+    <t>Try to create gallery-invalid description (max 1000 characters)</t>
   </si>
   <si>
     <t>TC-46</t>
   </si>
   <si>
-    <t>1. Enter an invalid description(more than 1000 characters)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NylEYRTJMefbr4rRsliwKTrh3FKgju2qIwWz6rQ2AiQnxdIbXuqf2q9f9V3wM59gedbwxbsU4OScuKoiFhp7Es0KdcF1C8gkjepjUjcwVIvlRtuZCNpsYZMVTc724zJJWFJMS4NlexclNZUOzNGWctskIegHUOxXFNoicrFCjymRbhTmYKFIAAXhmBP2taSV4k7Imu0zcYh6K7h1tBErsHVEpVEYV1FNAD0v4yjYv16hZSJmegOdvyvLhru8kol9kx6LOnyGA7bexZhkD24gaVTfHHEXwiLnBIqyVC4YzIchHMZ7vS50yylGwUgejYco73BGZPbGExyRDymuRzlOzSAHU7Uhzo4bE3IsIcVXWHhNoWUVJNipjPsWAaxbFKjXDER1dKqUmJTjSBASqH9DD7w2qUwShE6SLI1so8XZEVIIrN5e7Zfxg260YHFuHhHoa6ye8K998McwUaWPS9dH7gbMgboJmWatZ7RCAhU6pMqiEjC29SUpMWEY31aYJM5FcteJyhEAlvuRqyJIM9p6nwOL46UwPpAPOsfYRxCJAyqGxc6XQoAvO2N9GmwVUICbrw4tIGK712JmbePVYPmkTqNJvenMD5monnSKM7JKiH6jUAEK9u5Tx0laRXfgyOjfh8mrwcKLyrhNmjvV0UsuZbFSI5HoiPNNsNY0jXBQJVpO6X921UArhVwXsX6QNmHw9yusCpTt63KzrLoIWUTMozKY27GJWsHKqsSLvaOAe4DiIlesTp42jljIKNcfTp3duEGGJ2GipevMQKD6RQZxU4OwQzWqAc7uWhrlcGtEDmhmQLDY2I9LspFq8sUNkdRILJdJBgyoQofAbAHC2steJoZrczh0zH1bh6JTL93oGlwFnIG2nH8Hc2W2GpUbXVSDeGyQjhA0O7vEAswGvoK62suRIo3AKCkuCE93OQtUOYfbWiSu2w3syXK1znQPgbxxdePdmtuwK1tTXDvKWY6xXefn7PvoK4JeY2HbecrTZ
+    <t>1. In the title box enter the title (min 2 characters-max 255)
+2. In the description box enter an invalid description (more than 1000 characters)
+3. In the box for img. enter image URL (jpg,png,jpeg extension only)
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Night
+2. "NylEYRTJMefbr4rRsliwKTrh3FKgju2qIwWz6rQ2AiQnxdIbXuqf2q9f9V3wM59gedbwxbsU4OScuKoiFhp7Es0KdcF1C8gkjepjUjcwVIvlRtuZCNpsYZMVTc724zJJWFJMS4NlexclNZUOzNGWctskIegHUOxXFNoicrFCjymRbhTmYKFIAAXhmBP2taSV4k7Imu0zcYh6K7h1tBErsHVEpVEYV1FNAD0v4yjYv16hZSJmegOdvyvLhru8kol9kx6LOnyGA7bexZhkD24gaVTfHHEXwiLnBIqyVC4YzIchHMZ7vS50yylGwUgejYco73BGZPbGExyRDymuRzlOzSAHU7Uhzo4bE3IsIcVXWHhNoWUVJNipjPsWAaxbFKjXDER1dKqUmJTjSBASqH9DD7w2qUwShE6SLI1so8XZEVIIrN5e7Zfxg260YHFuHhHoa6ye8K998McwUaWPS9dH7gbMgboJmWatZ7RCAhU6pMqiEjC29SUpMWEY31aYJM5FcteJyhEAlvuRqyJIM9p6nwOL46UwPpAPOsfYRxCJAyqGxc6XQoAvO2N9GmwVUICbrw4tIGK712JmbePVYPmkTqNJvenMD5monnSKM7JKiH6jUAEK9u5Tx0laRXfgyOjfh8mrwcKLyrhNmjvV0UsuZbFSI5HoiPNNsNY0jXBQJVpO6X921UArhVwXsX6QNmHw9yusCpTt63KzrLoIWUTMozKY27GJWsHKqsSLvaOAe4DiIlesTp42jljIKNcfTp3duEGGJ2GipevMQKD6RQZxU4OwQzWqAc7uWhrlcGtEDmhmQLDY2I9LspFq8sUNkdRILJdJBgyoQofAbAHC2steJoZrczh0zH1bh6JTL93oGlwFnIG2nH8Hc2W2GpUbXVSDeGyQjhA0O7vEAswGvoK62suRIo3AKCkuCE93OQtUOYfbWiSu2w3syXK1znQPgbxxdePdmtuwK1tTXDvKWY6xXefn7PvoK4JeY2HbecrTZ
+"
+3. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
 </t>
   </si>
   <si>
     <t>1. Warning message; "The description may not be greater than 1000 characters "</t>
   </si>
   <si>
-    <t>Create gallery-invalid URL</t>
+    <t>Try to create gallery-invalid URL</t>
   </si>
   <si>
     <t>TC-47</t>
   </si>
   <si>
-    <t>1. Enter an invalid URL</t>
-  </si>
-  <si>
-    <t>w.slikanestu...</t>
+    <t>1. In the title box enter the title (min 2 characters-max 255)
+2. In the description box enter the description (1000 char max)
+3. In the box for img. enter an invalid image URL
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. The Night
+2. The night is young and so are we!!!
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>w.slikanesto.com</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+</t>
+    </r>
   </si>
   <si>
     <t>1. Warning Message: "Please enter a URL"</t>
   </si>
   <si>
-    <t>Create gallery-URL with an invalid extension</t>
+    <t>Try to create gallery-URL with an invalid extension</t>
   </si>
   <si>
     <t>TC-48</t>
   </si>
   <si>
-    <t>1. Enter an  URL with an invalid extension</t>
+    <t>1. In the title box enter the title (min 2 characters-max 255)
+2. In the description box enter the description (1000 char max)
+3. In the box for img. enter an invalid image URL (invalid extension)
+4. Click the button Add image
+5. Enter another image URL
+6. Click on the Button Submit</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. The Night
+2. The night is young and so are we!!!
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://youtu.be/CYtN7M4ZNsA</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Warning message: "Wrong format of Image"</t>
   </si>
   <si>
     <t>https://youtu.be/CYtN7M4ZNsA</t>
   </si>
   <si>
-    <t>1. Warning message: "Wrong format of Image"</t>
-  </si>
-  <si>
-    <t>Move up-Move down on URLs input field</t>
+    <t>Try to move up-move down on URLs input field</t>
   </si>
   <si>
     <t>TC-49</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter two URLs
-2.Click on: up arrow or down arrow
+    <t xml:space="preserve">1. In the title box enter the title (min 2 characters-max 255)
+2. In the description box enter the description (1000 char max)
+3. In the box for img. enter two images URLs (jpg,png,jpeg extension only)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
-2 .https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. The Night
+2. The night is young and so are we!!!
+                                                                    3. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">                                                                        https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg  
 </t>
+    </r>
   </si>
   <si>
     <t>1.Sroll URLs list</t>
@@ -924,7 +1178,7 @@
     <t>test test</t>
   </si>
   <si>
-    <t>1. Load all galleries from that author
+    <t>1. Load all galleries from that (test test) author
 2. Search box and Filter button present
 3. The button "Load more"</t>
   </si>
@@ -950,6 +1204,11 @@
   </si>
   <si>
     <t>TC-56</t>
+  </si>
+  <si>
+    <t>1. Load all galleries from that author
+2. Search box and Filter button present
+3. The button "Load more"</t>
   </si>
   <si>
     <r>
@@ -1105,7 +1364,7 @@
 2. The Gallery is edited</t>
   </si>
   <si>
-    <t>Edit others galleries</t>
+    <t>Edit others people's galleries</t>
   </si>
   <si>
     <t>TC-64</t>
@@ -1134,7 +1393,7 @@
 2. Load page My Galleries</t>
   </si>
   <si>
-    <t>Delete others galleries</t>
+    <t>Delete other people's galleries</t>
   </si>
   <si>
     <t>TC66</t>
@@ -1153,13 +1412,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1217,14 +1476,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1270,11 +1529,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1292,7 +1551,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
@@ -1300,7 +1559,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1344,7 +1603,7 @@
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1559,7 +1818,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -1575,31 +1837,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1"/>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="3" ht="16.5" customHeight="1"/>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>8</v>
@@ -1803,13 +2065,13 @@
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>46</v>
@@ -1849,13 +2111,13 @@
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>50</v>
@@ -1866,19 +2128,19 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>50</v>
@@ -1890,19 +2152,19 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>50</v>
@@ -1914,19 +2176,19 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>50</v>
@@ -1938,70 +2200,70 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H22" s="14"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>14</v>
@@ -2010,22 +2272,22 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>14</v>
@@ -2033,104 +2295,104 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>83</v>
+      <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="H27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="H30" s="14"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>14</v>
@@ -2139,22 +2401,22 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>14</v>
@@ -2162,108 +2424,108 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
+      <c r="A33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="14"/>
     </row>
     <row r="34">
-      <c r="H34" s="14"/>
+      <c r="A34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>14</v>
@@ -2272,22 +2534,22 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>14</v>
@@ -2296,22 +2558,22 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>14</v>
@@ -2320,22 +2582,22 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>14</v>
@@ -2343,52 +2605,52 @@
       <c r="H41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="14"/>
+      <c r="G42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>14</v>
@@ -2397,22 +2659,22 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>14</v>
@@ -2421,70 +2683,70 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>147</v>
+        <v>153</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>14</v>
+        <v>156</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="H48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>14</v>
@@ -2493,22 +2755,22 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>14</v>
@@ -2517,22 +2779,22 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
@@ -2541,137 +2803,137 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H53" s="14"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>177</v>
+      <c r="G56" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="H56" s="14"/>
     </row>
     <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="H57" s="14"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H58" s="14"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>183</v>
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>14</v>
@@ -2680,80 +2942,80 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="25"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="F61" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>201</v>
+      </c>
       <c r="H61" s="14"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A62" s="25"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="14"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>14</v>
@@ -2762,22 +3024,22 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>14</v>
@@ -2786,22 +3048,22 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>14</v>
@@ -2810,22 +3072,22 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>14</v>
@@ -2834,70 +3096,70 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="14"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="14"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>223</v>
+        <v>190</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>14</v>
@@ -2906,103 +3168,106 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>228</v>
+        <v>190</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H70" s="14"/>
+      <c r="I70" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>231</v>
+      <c r="A71" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="H71" s="14"/>
     </row>
     <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="H72" s="14"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>236</v>
+      <c r="F74" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="H74" s="14"/>
     </row>
     <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="H75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H76" s="14"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>17</v>
@@ -3011,7 +3276,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>14</v>
@@ -3020,22 +3285,22 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>14</v>
@@ -3044,22 +3309,22 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>14</v>
@@ -3067,113 +3332,113 @@
       <c r="H79" s="14"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>252</v>
       </c>
+      <c r="D80" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H80" s="14"/>
     </row>
     <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="H81" s="14"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="H82" s="14"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H83" s="14"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>262</v>
+      <c r="A84" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H84" s="14"/>
     </row>
     <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="H85" s="14"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H86" s="14"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>14</v>
@@ -3182,22 +3447,22 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>273</v>
+        <v>93</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>280</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>14</v>
@@ -3205,237 +3470,251 @@
       <c r="H88" s="14"/>
     </row>
     <row r="89">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
+      <c r="A89" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H89" s="14"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
       <c r="H90" s="14"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>283</v>
+        <v>120</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="14"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>289</v>
+      <c r="F94" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H94" s="14"/>
     </row>
     <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="H95" s="14"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H96" s="14"/>
     </row>
     <row r="97">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
+      <c r="A97" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H97" s="14"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="14"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>298</v>
+      <c r="F99" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H99" s="14"/>
     </row>
     <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="H100" s="14"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H101" s="14"/>
     </row>
     <row r="102">
-      <c r="A102" s="18"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+      <c r="A102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H102" s="14"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="A103" s="18"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="14"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+      <c r="G104" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H104" s="14"/>
     </row>
     <row r="105">
@@ -4158,29 +4437,42 @@
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
     </row>
+    <row r="177">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A74:G75"/>
-    <mergeCell ref="A80:G81"/>
-    <mergeCell ref="A84:G85"/>
-    <mergeCell ref="A94:G95"/>
-    <mergeCell ref="A99:G100"/>
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A75:G76"/>
+    <mergeCell ref="A81:G82"/>
+    <mergeCell ref="A85:G86"/>
+    <mergeCell ref="A95:G96"/>
+    <mergeCell ref="A100:G101"/>
     <mergeCell ref="A11:G12"/>
-    <mergeCell ref="A26:G27"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A56:G57"/>
-    <mergeCell ref="A71:G72"/>
+    <mergeCell ref="A27:G28"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A43:G44"/>
+    <mergeCell ref="A57:G58"/>
+    <mergeCell ref="A72:G73"/>
+    <mergeCell ref="A2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E4"/>
     <hyperlink r:id="rId2" ref="E5"/>
     <hyperlink r:id="rId3" ref="E23"/>
-    <hyperlink r:id="rId4" ref="E28"/>
+    <hyperlink r:id="rId4" ref="E29"/>
     <hyperlink r:id="rId5" ref="E69"/>
-    <hyperlink r:id="rId6" ref="E79"/>
+    <hyperlink r:id="rId6" ref="E70"/>
+    <hyperlink r:id="rId7" ref="I70"/>
+    <hyperlink r:id="rId8" ref="E71"/>
+    <hyperlink r:id="rId9" ref="E80"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/TEST CASE _Gallery App_.xlsx
+++ b/TEST CASE _Gallery App_.xlsx
@@ -10,8 +10,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B25">
+      <text>
+        <t xml:space="preserve">Da li je ovo validno?
+Naknadno sam dodao TC
+	-Vladimir Dimitrijević</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A49">
+      <text>
+        <t xml:space="preserve">Dodata sekcija
+	-Vladimir Dimitrijević</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="323">
   <si>
     <t>Test title:</t>
   </si>
@@ -34,7 +57,7 @@
     <t>Actual result:</t>
   </si>
   <si>
-    <t>The functionality of the home page (user not logged on)</t>
+    <t>Home page UI (logged off)</t>
   </si>
   <si>
     <t>Open app</t>
@@ -162,7 +185,7 @@
     </r>
   </si>
   <si>
-    <t>Register  user with valid credentials</t>
+    <t>Validate registering new users.</t>
   </si>
   <si>
     <t>TC-07</t>
@@ -520,7 +543,7 @@
     <t>The functionality of the log in page</t>
   </si>
   <si>
-    <t>Log in with valid credentials</t>
+    <t>Validate login with valid credentials.</t>
   </si>
   <si>
     <t>TC-23</t>
@@ -616,7 +639,7 @@
 2.abcdedfgdf2</t>
   </si>
   <si>
-    <t>The functionality of the home page "Galleries" (user not logged on)</t>
+    <t>The functionality of the home page "Galleries" (logged off)</t>
   </si>
   <si>
     <t>Validate that all images in a gallery load upon clicking on the gallery name</t>
@@ -649,7 +672,7 @@
     <t>Load page: Athores id</t>
   </si>
   <si>
-    <t>End of page:Load more</t>
+    <t>Validate that pagination is successful.</t>
   </si>
   <si>
     <t>TC-31</t>
@@ -661,6 +684,9 @@
     <t xml:space="preserve">Load 10 more galleries </t>
   </si>
   <si>
+    <t>Validate that pagination is successful till all galleries are loaded.</t>
+  </si>
+  <si>
     <t>TC-32</t>
   </si>
   <si>
@@ -673,7 +699,10 @@
     <t>The button is still there</t>
   </si>
   <si>
-    <t>Home page-filter input</t>
+    <t>The functionality of the Search BoX (logged off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate search box </t>
   </si>
   <si>
     <t>TC-33</t>
@@ -685,10 +714,10 @@
     <t>av123@</t>
   </si>
   <si>
-    <t>The search box is present&amp;visible, and accepts users input</t>
-  </si>
-  <si>
-    <t>Home page-filter input (galleries)</t>
+    <t>The search box is present&amp;visible, and accepts user input</t>
+  </si>
+  <si>
+    <t>Check the filter of the search box (galleries)</t>
   </si>
   <si>
     <t>TC-34</t>
@@ -706,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Home page-filter input (authors) </t>
+    <t xml:space="preserve">Check the filter of the search box (authors) </t>
   </si>
   <si>
     <t>TC-35</t>
@@ -720,7 +749,7 @@
     <t>1. test</t>
   </si>
   <si>
-    <t>Home page-filter (descriptions)</t>
+    <t>Check the filter of the search box  (descriptions)</t>
   </si>
   <si>
     <t>TC-36</t>
@@ -734,22 +763,10 @@
     <t>1. nesto</t>
   </si>
   <si>
-    <t>Home page -filter input  pagination</t>
+    <t>Try to enter an invalid term</t>
   </si>
   <si>
     <t>TC-37</t>
-  </si>
-  <si>
-    <t>1. Click the button Load more</t>
-  </si>
-  <si>
-    <t>Load 10 more galleries that meet the filter criteria.</t>
-  </si>
-  <si>
-    <t>Invalid term - filter input</t>
-  </si>
-  <si>
-    <t>TC-38</t>
   </si>
   <si>
     <t xml:space="preserve">1. In the search box enter the invalid term 
@@ -763,7 +780,10 @@
     <t>Message: "No galleries found"</t>
   </si>
   <si>
-    <t>Empty filter input</t>
+    <t>Try to leave the search box empty</t>
+  </si>
+  <si>
+    <t>TC-38</t>
   </si>
   <si>
     <t>1. Search box empty
@@ -777,7 +797,7 @@
     <t>The functionality of the create new Gallery page</t>
   </si>
   <si>
-    <t>Create gallery page</t>
+    <t>Validate Create gallery page UI</t>
   </si>
   <si>
     <t>TC-39</t>
@@ -790,7 +810,7 @@
 5. Buttons Submit &amp; Cancel</t>
   </si>
   <si>
-    <t>Create gallery</t>
+    <t>Validate creating the new gallery.</t>
   </si>
   <si>
     <t>TC-40</t>
@@ -811,11 +831,11 @@
 </t>
   </si>
   <si>
-    <t>1. Galery created
-2. Load page My Galleries</t>
-  </si>
-  <si>
-    <t>Create gallery-Cancel</t>
+    <t>1. Gallery created
+2. My Galleries page loaded</t>
+  </si>
+  <si>
+    <t>Validate the Cancel button</t>
   </si>
   <si>
     <t>TC-41</t>
@@ -867,6 +887,10 @@
 3. https://www.publicis.com/wp-content/uploads/2021/09/1632337776_marcel-1140jpgimage38402160high.jpg
 4.https://www.publicis.com/wp-content/uploads/2022/10/Heineken_Closer_1-1500x844.jpg 
 </t>
+  </si>
+  <si>
+    <t>1. Galery created
+2. Load page My Galleries</t>
   </si>
   <si>
     <t>Try to create galleryy - The box for image URLs empty</t>
@@ -1079,10 +1103,10 @@
     <t>Non-functional</t>
   </si>
   <si>
-    <t>The functionality of the My Galleries page(user logged on)</t>
-  </si>
-  <si>
-    <t>My Galleries page</t>
+    <t xml:space="preserve"> My Galleries UI</t>
+  </si>
+  <si>
+    <t>Validate the My Galleries page</t>
   </si>
   <si>
     <t>TC-50</t>
@@ -1111,10 +1135,10 @@
     </r>
   </si>
   <si>
-    <t>The functionality of the View gallery page</t>
-  </si>
-  <si>
-    <t>View gallery page (user logged off)</t>
+    <t xml:space="preserve"> View gallery UI</t>
+  </si>
+  <si>
+    <t>Validate the View gallery page (user logged off)</t>
   </si>
   <si>
     <t>TC-51</t>
@@ -1126,13 +1150,13 @@
 4.The description- present</t>
   </si>
   <si>
-    <t>View gallery page (user logged in)</t>
+    <t>Validate the View gallery page (user logged in)</t>
   </si>
   <si>
     <t>TC-52</t>
   </si>
   <si>
-    <t xml:space="preserve">View gallery </t>
+    <t>Validate that all pictures in specified gallery are loaded</t>
   </si>
   <si>
     <t>TC-53</t>
@@ -1147,7 +1171,7 @@
     <t>1. Load the page with all pictures in that gallery</t>
   </si>
   <si>
-    <t>Gallery pictures</t>
+    <t>Validate that the specific picture loads in the new tab</t>
   </si>
   <si>
     <t>TC-54</t>
@@ -1159,14 +1183,14 @@
     <t>https://media.npr.org/assets/img/2021/08/11/gettyimages-1279899488_wide-f3860ceb0ef19643c335cb34df3fa1de166e2761-s1100-c50.jpg</t>
   </si>
   <si>
-    <t>1. The specific picture opens in a new tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The functionality of the Author’s Galleries Page                                              
+    <t>1. The specific picture loads in a new tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Author’s Galleries UI                                      
                                       </t>
   </si>
   <si>
-    <t>Authors galleries page (user logged off)</t>
+    <t>Validate authors galleries page (user logged off)</t>
   </si>
   <si>
     <t>TC-55</t>
@@ -1200,7 +1224,7 @@
     </r>
   </si>
   <si>
-    <t>Authors galleries page (user logged in)</t>
+    <t>Validate authors galleries page (user logged in)</t>
   </si>
   <si>
     <t>TC-56</t>
@@ -1232,7 +1256,7 @@
                                       </t>
   </si>
   <si>
-    <t>Comments(user logged off)</t>
+    <t>Leaving a comment as a logged-off user</t>
   </si>
   <si>
     <t>TC-57</t>
@@ -1250,7 +1274,7 @@
 3. The comments are set-present</t>
   </si>
   <si>
-    <t>Comments (user logged in)</t>
+    <t>Leaving a comment as a logged-in user</t>
   </si>
   <si>
     <t>TC-58</t>
@@ -1263,7 +1287,7 @@
 5. The button Submit- present</t>
   </si>
   <si>
-    <t>Adding comments(min 1 character-max 1000 characters)</t>
+    <t>Successfully adding a comment (min 1 character)</t>
   </si>
   <si>
     <t>TC-59</t>
@@ -1274,14 +1298,23 @@
 3. Click on the button Submit</t>
   </si>
   <si>
-    <t xml:space="preserve"> Excellent pictures </t>
+    <t>w</t>
   </si>
   <si>
     <t>1. The comment was automatically added to the list of comments above
 2. The content of the comment field (text area) has been deleted</t>
   </si>
   <si>
-    <t>Adding the invalid comments(min 1 character)</t>
+    <t>Successfully adding a comment (max 1000 characters)</t>
+  </si>
+  <si>
+    <t>TC-59A</t>
+  </si>
+  <si>
+    <t>BVFrKQySwA9eR4CTeTIdwJVD95b17DewMlfji7lqzC1fojHTjtWZhZOGC39o5gijbmRZphGZbpokUOCQ95NMeiSmfyPUvOYp2zXMntQ79Xt6WzyfICHBR6Wcn6ISgB2Xa93EDDUWsjBssJzu0l5GOiOL5HR1HnYl5vIpw4XC18Kr9rCsj9AOVxSy3zaa9llBMvepvt7SO7Ykt04rRpDYStFG6UbbCuqBCU7VIPNzRva1ZjWeJ8bABCcHdKxCfzEhE7OGO2Y3wEsLG6qnInNly1lraxdwKyGfqqi65Gj597iorHgDavsq26nKsJC2LUEJvdpOqcyTFboBtZ0rHUqP5XDJUoOGZIrLIhItbY8k06LKpBeeEzwGjS7soqyG6NAO5FqEiVTi6ed9etL8AAYbnjBBDkNGpYN9eSqFJCvvtPg0V3NNtT1NJZZZBjT095hxVGDE0oBoOhrQSNZN8Ilh8sA0krWsIDDDQLWC2JkSyE78o9HUI49bthXhqtNGzeQUBS8WH2HhGYgTMgEgnQ0cOMcOb3tsZZtsI54L6Va32EybDGyZSHX3Uxl8qj6hyV7vz7vNrLxF1HhNJdEw6vcb09Qx49zcV0dT8JgXKLQLAKb65ZSr6NqoyBfDU68ELDKW3waQPPSH0BbaPoJHzQEDRnO7qeu6BLV6Ng2DwMZARBtJ0iX7JSL4sBEIvrb3vd68a4N8AkyysiL25Ia1mOHUUjYRY5tFUnr5xlkFSEYgHzSiwISOtLekaNAJ6VoSfQRnd8QF6MgtKVeOxpejhWxXgbg8yybUbnCUChfA6y6IRrKr9JZZHQ6Um0Ka5SUevHs5OgFPwHwTDjkYbz1QbIx86WP2GlTWvObZdP8BQdXOtc8ZT4Wwpv8MfuAh4zyVNMnpK9N8FzmB2mNAEpC3i9cyixEXthHD5cMWP24VsovlDoDnBdpRFEB1HNX4LN0R93j27UImG9uZTI6cvTYKEIkN1YyGazGnwZvwLKaPCflY</t>
+  </si>
+  <si>
+    <t>Try to add an invalid comments (no comment)</t>
   </si>
   <si>
     <t>TC-60</t>
@@ -1290,13 +1323,13 @@
     <t>1.Text area is empty</t>
   </si>
   <si>
-    <t>Adding the invalid comments(max 1000 character)</t>
+    <t>Try to add an invalid comment ( with 1001 characters)</t>
   </si>
   <si>
     <t>TC-61</t>
   </si>
   <si>
-    <t>1. Enter a comment with 1001 character.</t>
+    <t xml:space="preserve">1. Enter a comment </t>
   </si>
   <si>
     <t>JPB1wMkrFN8of8ABqbekc4zNDNC6eDrjzRUp2WeW1lDG3x57OxmqfhVftgkeihOl54yDjgs5BJnRQ3Y4nyHh47mAcIqqXktI38Guhs8jZnC98xho8LpazVKDaIuKHgLshOeHH4zh3Dfup1CSQO3Ue5TOlPorML3YukWLrtupoScJmAfr54qSfjcRElGnEKwNtoC5bVxNqy5VJy2gXpiMyKesxsRjLnMRp4lodSo5LED2CoF6UPuxIILFEJepx5PyhtcSalacrBrxemeiRAE2EDnqsitfdStDTkedZiVryki3glyASWFUlCEgM1kcD4RgqORlGwJq41kwDn9Bj6MMVc6UY5walnImo64xfONlCf7tZbB4AkbnR3Tyiso6h5SXuaPu9KOutKqhqW1DRxwRRlrm03xaUtCvj9MWTnVVUPTKPABfq5Pmu9QmdGSoW630Dx8HMpdhB6JUvEv2lZO4icozxoccZfvGGs2PtEtlT2WmlwKqC5qTpSFfwy4BREVTA1twNoyDFxJm35hbA5RnQtNse6oOTlZL4fBGEvzmZP3yQc9aSWoljIv5vMyjueFRl6ct5QbOdsCFtzreHMOcCSI0Z17Wt82wD53EWayQty1Zk3jsSAFZYCjzHwfmTzIMHZd0PmE9vOIdgoaOFcJZdzJrK5Fwi9rCTWq6LIJt0rcjQlCuCDqpvJmgZZjkrCjuV0thRaidpM7ZNNaGdjDygCjTSRUTthTarKzBV41M7DJ6kwLPXf36fr24GDKMPYw1LMVMW8W0VT6neLeFNysymHdRGbT32I2wy9OYNwFXbOv0unIKjTLNKtT6el4u9nVlocv0yves4fcquoTsb7LOITrlYDecH0BMZHIvVlcnKbiW496CarzWpaxgaP9bGKcUiR5H2g4vPTFAWAtaDdeB76MnGDII2KW00VP9D4Nz54Zv8FJRY8nr5IstN0KLxRwNLcnZBYdmZlo5CHRreLXCdbm5WnVjWkdjR8jZ7MrAs</t>
@@ -1328,7 +1361,7 @@
     </r>
   </si>
   <si>
-    <t>Removing comments</t>
+    <t>Validate removing comments</t>
   </si>
   <si>
     <t>TC-62</t>
@@ -1345,7 +1378,7 @@
                                       </t>
   </si>
   <si>
-    <t>Edit my Gallery</t>
+    <t>Validate editing one's own Gallery</t>
   </si>
   <si>
     <t>TC-63</t>
@@ -1364,7 +1397,7 @@
 2. The Gallery is edited</t>
   </si>
   <si>
-    <t>Edit others people's galleries</t>
+    <t>Try to edit others people's galleries</t>
   </si>
   <si>
     <t>TC-64</t>
@@ -1378,7 +1411,7 @@
                                       </t>
   </si>
   <si>
-    <t>Delete my Gallery</t>
+    <t>Validate deletion one's own gallery</t>
   </si>
   <si>
     <t>TC-65</t>
@@ -1393,7 +1426,7 @@
 2. Load page My Galleries</t>
   </si>
   <si>
-    <t>Delete other people's galleries</t>
+    <t>Try to delete other people's galleries</t>
   </si>
   <si>
     <t>TC66</t>
@@ -1403,7 +1436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1463,6 +1496,12 @@
     </font>
     <font>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1559,9 +1598,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1598,6 +1634,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2104,10 +2143,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2148,7 +2187,7 @@
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -2172,7 +2211,7 @@
       <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
@@ -2196,7 +2235,7 @@
       <c r="G21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
@@ -2220,7 +2259,7 @@
       <c r="G22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
@@ -2235,7 +2274,7 @@
       <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2244,7 +2283,7 @@
       <c r="G23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
@@ -2268,7 +2307,7 @@
       <c r="G24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
@@ -2292,7 +2331,7 @@
       <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
@@ -2316,16 +2355,16 @@
       <c r="G26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28">
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
@@ -2349,7 +2388,7 @@
       <c r="G29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
@@ -2373,7 +2412,7 @@
       <c r="G30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
@@ -2397,7 +2436,7 @@
       <c r="G31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
@@ -2421,7 +2460,7 @@
       <c r="G32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
@@ -2445,13 +2484,13 @@
       <c r="G33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2472,7 +2511,7 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35">
-      <c r="H35" s="14"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
@@ -2487,7 +2526,7 @@
       <c r="D36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2496,17 +2535,17 @@
       <c r="G36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
@@ -2530,7 +2569,7 @@
       <c r="G38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -2554,7 +2593,7 @@
       <c r="G39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -2569,7 +2608,7 @@
       <c r="D40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>129</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2578,7 +2617,7 @@
       <c r="G40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -2593,7 +2632,7 @@
       <c r="D41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2602,7 +2641,7 @@
       <c r="G41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -2617,7 +2656,7 @@
       <c r="D42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -2626,7 +2665,7 @@
       <c r="G42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -2646,7 +2685,7 @@
       <c r="D45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>143</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2655,7 +2694,7 @@
       <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
@@ -2679,7 +2718,7 @@
       <c r="G46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
@@ -2703,439 +2742,400 @@
       <c r="G47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="14"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="H48" s="14"/>
+      <c r="G48" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="13"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="14"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="14"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="14"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="14"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="F54" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="14"/>
+      <c r="G54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="13"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="14"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58">
-      <c r="H58" s="14"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="14"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>194</v>
+      <c r="D60" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="14"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C62" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" s="11" t="s">
+      <c r="E62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="11" t="s">
+      <c r="G62" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="25"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="14"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="14"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>207</v>
+        <v>189</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="14"/>
+      <c r="H64" s="13"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>211</v>
+        <v>189</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="14"/>
+      <c r="H65" s="13"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>215</v>
+        <v>189</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="14"/>
+      <c r="H66" s="13"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>220</v>
+        <v>189</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="13"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>225</v>
+        <v>189</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>14</v>
@@ -3144,154 +3144,154 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>231</v>
+        <v>189</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="14"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>236</v>
+        <v>189</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="H70" s="13"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D71" s="23" t="s">
+      <c r="C72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G72" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73">
-      <c r="H73" s="14"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="H74" s="14"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H75" s="14"/>
-    </row>
-    <row r="76">
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>17</v>
@@ -3305,98 +3305,98 @@
       <c r="G78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="13"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="14"/>
+      <c r="H79" s="13"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="14"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="G81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="82">
-      <c r="H82" s="14"/>
+      <c r="H82" s="13"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H83" s="14"/>
+      <c r="H83" s="13"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>269</v>
@@ -3405,55 +3405,55 @@
         <v>270</v>
       </c>
       <c r="F84" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H84" s="14"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H85" s="14"/>
-    </row>
-    <row r="86">
-      <c r="H86" s="14"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D88" s="26" t="s">
         <v>280</v>
@@ -3462,46 +3462,60 @@
         <v>281</v>
       </c>
       <c r="F88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="14"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="G89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="14"/>
+      <c r="G90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="13"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
@@ -3511,136 +3525,136 @@
         <v>292</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3" t="s">
+      <c r="D93" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H92" s="14"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="14"/>
+      <c r="G93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="13"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="F94" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="G94" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96">
-      <c r="H96" s="14"/>
+      <c r="F96" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="13"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="14"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="14"/>
+      <c r="H98" s="13"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="E99" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>312</v>
@@ -3648,831 +3662,867 @@
       <c r="G99" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="14"/>
+      <c r="H99" s="13"/>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="H100" s="14"/>
-    </row>
-    <row r="101">
-      <c r="H101" s="14"/>
+      <c r="B101" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="13"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="14"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103">
-      <c r="A103" s="18"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="14"/>
+      <c r="H103" s="13"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="F104" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="13"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="17"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="13"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="14"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
+      <c r="G106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="13"/>
     </row>
     <row r="107">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
     </row>
     <row r="109">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
     </row>
     <row r="110">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
     </row>
     <row r="111">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
     </row>
     <row r="112">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
     </row>
     <row r="113">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
     </row>
     <row r="114">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
     </row>
     <row r="115">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
     </row>
     <row r="116">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
     </row>
     <row r="117">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
     </row>
     <row r="119">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
     </row>
     <row r="120">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
     </row>
     <row r="121">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
     </row>
     <row r="122">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
     </row>
     <row r="131">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
     </row>
     <row r="132">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
     </row>
     <row r="134">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
     </row>
     <row r="135">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
     </row>
     <row r="139">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
     </row>
     <row r="140">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
     </row>
     <row r="141">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
     </row>
     <row r="142">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
     </row>
     <row r="143">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
     </row>
     <row r="144">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
     </row>
     <row r="145">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
     </row>
     <row r="146">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
     </row>
     <row r="147">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
     </row>
     <row r="148">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
     </row>
     <row r="149">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
     </row>
     <row r="150">
-      <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
     </row>
     <row r="151">
-      <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
     </row>
     <row r="152">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
     </row>
     <row r="153">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
     </row>
     <row r="154">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
     </row>
     <row r="155">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
     </row>
     <row r="156">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
     </row>
     <row r="157">
-      <c r="A157" s="14"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
     </row>
     <row r="158">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
     </row>
     <row r="159">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
     </row>
     <row r="160">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
     </row>
     <row r="161">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
     </row>
     <row r="162">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
     </row>
     <row r="163">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
     </row>
     <row r="164">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
     </row>
     <row r="165">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
     </row>
     <row r="166">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
     </row>
     <row r="167">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
     </row>
     <row r="168">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
     </row>
     <row r="169">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
     </row>
     <row r="170">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
     </row>
     <row r="171">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
     </row>
     <row r="172">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
     </row>
     <row r="173">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
     </row>
     <row r="174">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
     </row>
     <row r="175">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
     </row>
     <row r="176">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
     </row>
     <row r="177">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A75:G76"/>
-    <mergeCell ref="A81:G82"/>
-    <mergeCell ref="A85:G86"/>
-    <mergeCell ref="A95:G96"/>
-    <mergeCell ref="A100:G101"/>
+  <mergeCells count="13">
+    <mergeCell ref="A73:G74"/>
+    <mergeCell ref="A76:G77"/>
+    <mergeCell ref="A82:G83"/>
+    <mergeCell ref="A86:G87"/>
+    <mergeCell ref="A97:G98"/>
+    <mergeCell ref="A102:G103"/>
+    <mergeCell ref="A2:G3"/>
     <mergeCell ref="A11:G12"/>
     <mergeCell ref="A27:G28"/>
     <mergeCell ref="A34:G35"/>
     <mergeCell ref="A43:G44"/>
-    <mergeCell ref="A57:G58"/>
-    <mergeCell ref="A72:G73"/>
-    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A49:G50"/>
+    <mergeCell ref="A58:G59"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E4"/>
-    <hyperlink r:id="rId2" ref="E5"/>
-    <hyperlink r:id="rId3" ref="E23"/>
-    <hyperlink r:id="rId4" ref="E29"/>
-    <hyperlink r:id="rId5" ref="E69"/>
+    <hyperlink r:id="rId2" ref="E4"/>
+    <hyperlink r:id="rId3" ref="E5"/>
+    <hyperlink r:id="rId4" ref="E23"/>
+    <hyperlink r:id="rId5" ref="E29"/>
     <hyperlink r:id="rId6" ref="E70"/>
-    <hyperlink r:id="rId7" ref="I70"/>
-    <hyperlink r:id="rId8" ref="E71"/>
-    <hyperlink r:id="rId9" ref="E80"/>
+    <hyperlink r:id="rId7" ref="E71"/>
+    <hyperlink r:id="rId8" ref="I71"/>
+    <hyperlink r:id="rId9" ref="E72"/>
+    <hyperlink r:id="rId10" ref="E81"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>